--- a/data/announcements.xlsx
+++ b/data/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E56EC6-F9FC-6B43-A372-1E2D298C5AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0575E16-9338-DA43-9E5E-C1DF5E83E0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="1620" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -123,12 +123,90 @@
     <t>文青里</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>文化里-001</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化里</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;文化社區歐式花藝班 &lt;br&gt;
+第七期課程，費用3500元
+&lt;ul&gt;
+&lt;li&gt;2023/11/16 -法式桌花（冠軍杯）&lt;/li&gt;
+&lt;li&gt;2023/11/30 -葉子造型（不用花器）&lt;/li&gt;
+&lt;li&gt;2023/12/14-劍山插花（黑圓盤）&lt;/li&gt;
+&lt;li&gt;2023/12/21-聖誕節課程&lt;/li.
+&lt;li&gt;2024/01/04 -自然花型（黑圓盤）&lt;/li&gt;
+&lt;li&gt;2024/01-18 -植栽組盆 &lt;/li&gt;
+&lt;/ul&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐式花藝班</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七期課程</t>
+  </si>
+  <si>
+    <t>黃明助</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 舉辦社團活動</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100069676248826</t>
+  </si>
+  <si>
+    <t>2023/11 - 2024/01</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;長庚里里長  已開辦  社區照顧 C據點活動 巷弄長照站
+&lt;ul&gt;
+&lt;li&gt;歡迎住社區的長輩 / 眷屬長輩, 不限有無戶籍 不限宗教&lt;/li&gt;
+&lt;li&gt; 每週三四早上  都可以來參加據點活動: 共餐, 健康操, 手做, 生日派, 桌遊, 團康等 活動課程多元&lt;/li&gt;
+&lt;li&gt;長輩出來走走互動, 認識朋友, 聊天防失智&lt;/li&gt;
+&lt;li&gt;詳請洽社區關懷中心  電話：03-3181831&lt;/li&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>長庚里-001</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>長庚里</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>林俊源</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100064026103094</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區照顧 C據點活動</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區關懷中心 定期活動通告</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +234,15 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -196,12 +283,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,9 +313,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,13 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -631,8 +725,75 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:13" ht="176">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="160">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{8448F6BC-AC36-9E4F-8AF4-E5A3F88FC63C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/announcements.xlsx
+++ b/data/announcements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0575E16-9338-DA43-9E5E-C1DF5E83E0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8863048-D788-1441-AF9B-719F1F790530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="1620" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -199,6 +199,23 @@
   </si>
   <si>
     <t>社區關懷中心 定期活動通告</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>長庚里-002</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年終里民聯誼</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>暨市政宣導活動 耶誕晚會 園遊會</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/ANN-001.jpg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -631,13 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -757,15 +774,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="160">
+    <row r="4" spans="1:13" ht="96">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>33</v>
@@ -777,22 +794,51 @@
         <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="160">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J5" s="5">
         <v>45124</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{8448F6BC-AC36-9E4F-8AF4-E5A3F88FC63C}"/>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{8448F6BC-AC36-9E4F-8AF4-E5A3F88FC63C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
